--- a/assets/ChartBuilder/public/Data/Backups/Catalyst/IOX/iox.xlsx
+++ b/assets/ChartBuilder/public/Data/Backups/Catalyst/IOX/iox.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Dropbox (Catalyst Funds)\Marketing Team Files\Marketing Materials\AutoCharts&amp;Tables\Backup Files\Catalyst\IOX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Marketing Team Files\Marketing Materials\AutoCharts&amp;Tables\Backup Files\Catalyst\IOX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE94E8F-3332-4957-83C7-420B0212E811}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BA518E-EC1A-43CE-8995-A87FCF1FD5BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IOX Fact Sheet Backup" sheetId="1" r:id="rId1"/>
@@ -1747,37 +1747,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S109"/>
+  <dimension ref="A1:S112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="96" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" style="97" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" style="97" customWidth="1"/>
     <col min="4" max="4" width="15" style="105" customWidth="1"/>
-    <col min="5" max="5" width="6.44140625" style="102" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="4"/>
+    <col min="5" max="5" width="6.42578125" style="102" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="4"/>
     <col min="7" max="7" width="19" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.33203125" style="4" customWidth="1"/>
-    <col min="16" max="16" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="4"/>
+    <col min="14" max="14" width="7.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.28515625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="48" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="106">
-        <v>44196</v>
+        <v>44286</v>
       </c>
       <c r="P1" s="119" t="s">
         <v>21</v>
@@ -1808,7 +1808,7 @@
       <c r="Q1" s="120"/>
       <c r="R1" s="121"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>41963</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>3</v>
       </c>
       <c r="H2" s="118">
-        <v>7.2300000000000001E-4</v>
+        <v>1.7699999999999999E-4</v>
       </c>
       <c r="I2" s="138"/>
       <c r="J2" s="139"/>
@@ -1838,7 +1838,7 @@
       <c r="Q2" s="123"/>
       <c r="R2" s="124"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>41973</v>
       </c>
@@ -1861,8 +1861,8 @@
         <v>4</v>
       </c>
       <c r="H3" s="11">
-        <f>(COUNTA(C3:C270))+I3</f>
-        <v>74.36666666666666</v>
+        <f>(COUNTA(C3:C273))+I3</f>
+        <v>77.36666666666666</v>
       </c>
       <c r="I3" s="22">
         <f>11/30</f>
@@ -1874,7 +1874,7 @@
       <c r="Q3" s="126"/>
       <c r="R3" s="127"/>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>EOMONTH(A3,1)</f>
         <v>42004</v>
@@ -1904,7 +1904,7 @@
       <c r="Q4" s="129"/>
       <c r="R4" s="130"/>
     </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <f t="shared" ref="A5:A68" si="2">EOMONTH(A4,1)</f>
         <v>42035</v>
@@ -1927,7 +1927,7 @@
       <c r="K5" s="67"/>
       <c r="L5" s="67"/>
     </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <f t="shared" si="2"/>
         <v>42063</v>
@@ -1958,7 +1958,7 @@
       <c r="J6" s="38"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <f t="shared" si="2"/>
         <v>42094</v>
@@ -1982,7 +1982,7 @@
       </c>
       <c r="H7" s="70">
         <f>((H14-H2)-H8*(I14-H2))*100</f>
-        <v>2.0322619758917351</v>
+        <v>2.0013472780917856</v>
       </c>
       <c r="I7" s="71"/>
       <c r="J7" s="147" t="s">
@@ -1991,7 +1991,7 @@
       <c r="K7" s="67"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <f t="shared" si="2"/>
         <v>42124</v>
@@ -2014,8 +2014,8 @@
         <v>44</v>
       </c>
       <c r="H8" s="72">
-        <f>COVAR(C3:C76,E3:E76)/VAR(E3:E76)</f>
-        <v>0.3243746430726131</v>
+        <f>COVAR(C3:C79,E3:E79)/VAR(E3:E79)</f>
+        <v>0.32110719939170518</v>
       </c>
       <c r="I8" s="73"/>
       <c r="J8" s="148"/>
@@ -2031,7 +2031,7 @@
         <v>Bloomberg Barclays US MBS Index Total Return</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <f t="shared" si="2"/>
         <v>42155</v>
@@ -2054,8 +2054,8 @@
         <v>45</v>
       </c>
       <c r="H9" s="74">
-        <f>RSQ(C3:C76,E3:E76)</f>
-        <v>7.6905355521827978E-2</v>
+        <f>RSQ(C3:C79,E3:E79)</f>
+        <v>7.8105584854844201E-2</v>
       </c>
       <c r="I9" s="75"/>
       <c r="J9" s="148"/>
@@ -2065,7 +2065,7 @@
       <c r="R9" s="134"/>
       <c r="S9" s="151"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f t="shared" si="2"/>
         <v>42185</v>
@@ -2089,11 +2089,11 @@
       </c>
       <c r="H10" s="72">
         <f>(H14-$H$2)/H12</f>
-        <v>1.2481118594465459</v>
+        <v>1.2121823154784896</v>
       </c>
       <c r="I10" s="76">
         <f>(I14-$H$2)/I12</f>
-        <v>1.3953817450601911</v>
+        <v>1.2671788664090295</v>
       </c>
       <c r="J10" s="148"/>
       <c r="M10" s="4"/>
@@ -2102,18 +2102,18 @@
       </c>
       <c r="Q10" s="45">
         <f>EOMONTH($H$1,-3)</f>
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="R10" s="46">
-        <f t="shared" ref="R10:R16" si="3">SUMIF($A$2:$A$260,$Q10,$B$2:$B$260)</f>
-        <v>12107</v>
+        <f t="shared" ref="R10:R16" si="3">SUMIF($A$2:$A$263,$Q10,$B$2:$B$263)</f>
+        <v>11982</v>
       </c>
       <c r="S10" s="47">
-        <f t="shared" ref="S10:S16" si="4">SUMIF($A$2:$A$260,$Q10,$D$2:$D$260)</f>
-        <v>11834.674536876282</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" ref="S10:S16" si="4">SUMIF($A$2:$A$263,$Q10,$D$2:$D$263)</f>
+        <v>11863.677212475228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <f t="shared" si="2"/>
         <v>42216</v>
@@ -2137,29 +2137,29 @@
       </c>
       <c r="H11" s="77">
         <f>R24</f>
-        <v>0.19819999999999999</v>
+        <v>0.1943</v>
       </c>
       <c r="I11" s="78">
         <f>S24</f>
-        <v>0.18636772124752279</v>
+        <v>0.17331651722799724</v>
       </c>
       <c r="J11" s="148"/>
       <c r="P11" s="44" t="s">
         <v>29</v>
       </c>
       <c r="Q11" s="111">
-        <v>43830</v>
+        <v>44196</v>
       </c>
       <c r="R11" s="46">
         <f t="shared" si="3"/>
-        <v>11623</v>
+        <v>11982</v>
       </c>
       <c r="S11" s="47">
         <f t="shared" si="4"/>
-        <v>11421.437470639894</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+        <v>11863.677212475228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <f t="shared" si="2"/>
         <v>42247</v>
@@ -2182,12 +2182,12 @@
         <v>47</v>
       </c>
       <c r="H12" s="77">
-        <f>STDEV(C2:C76)*SQRT(12)</f>
-        <v>2.3457032138916128E-2</v>
+        <f>STDEV(C2:C79)*SQRT(12)</f>
+        <v>2.3200305466343066E-2</v>
       </c>
       <c r="I12" s="78">
-        <f>STDEV(E2:E76)*SQRT(12)</f>
-        <v>1.9783157020976893E-2</v>
+        <f>STDEV(E2:E79)*SQRT(12)</f>
+        <v>1.9930012530460076E-2</v>
       </c>
       <c r="J12" s="148"/>
       <c r="P12" s="44" t="s">
@@ -2195,18 +2195,18 @@
       </c>
       <c r="Q12" s="45">
         <f>EOMONTH($H$1,-12)</f>
-        <v>43830</v>
+        <v>43921</v>
       </c>
       <c r="R12" s="46">
         <f t="shared" si="3"/>
-        <v>11623</v>
+        <v>11901</v>
       </c>
       <c r="S12" s="47">
         <f t="shared" si="4"/>
-        <v>11421.437470639894</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+        <v>11743.428443046503</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <f t="shared" si="2"/>
         <v>42277</v>
@@ -2230,11 +2230,11 @@
       </c>
       <c r="H13" s="79">
         <f>H15/$H$3</f>
-        <v>0.60510981622590776</v>
+        <v>0.5945713054717795</v>
       </c>
       <c r="I13" s="80">
         <f>I15/$H$3</f>
-        <v>0.67234424025100858</v>
+        <v>0.65919862128392936</v>
       </c>
       <c r="J13" s="148"/>
       <c r="P13" s="44" t="s">
@@ -2242,18 +2242,18 @@
       </c>
       <c r="Q13" s="45">
         <f>EOMONTH($H$1,-36)</f>
-        <v>43100</v>
+        <v>43190</v>
       </c>
       <c r="R13" s="46">
         <f t="shared" si="3"/>
-        <v>10683.85</v>
+        <v>10724</v>
       </c>
       <c r="S13" s="47">
         <f t="shared" si="4"/>
-        <v>10634.025040338223</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>10507.138334592833</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <f t="shared" si="2"/>
         <v>42308</v>
@@ -2277,11 +2277,11 @@
       </c>
       <c r="H14" s="81">
         <f>M29</f>
-        <v>0.03</v>
+        <v>2.8299999999999999E-2</v>
       </c>
       <c r="I14" s="82">
         <f>S25</f>
-        <v>2.8328056166730509E-2</v>
+        <v>2.5431890685866154E-2</v>
       </c>
       <c r="J14" s="149"/>
       <c r="P14" s="44" t="s">
@@ -2289,18 +2289,18 @@
       </c>
       <c r="Q14" s="45">
         <f>EOMONTH($H$1,-60)</f>
-        <v>42369</v>
+        <v>42460</v>
       </c>
       <c r="R14" s="46">
         <f t="shared" si="3"/>
-        <v>10156.530000000001</v>
+        <v>10260.629999999999</v>
       </c>
       <c r="S14" s="47">
         <f t="shared" si="4"/>
-        <v>10206.541941545313</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+        <v>10408.284144523192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <f t="shared" si="2"/>
         <v>42338</v>
@@ -2323,12 +2323,12 @@
         <v>9</v>
       </c>
       <c r="H15" s="65">
-        <f>COUNTIF(C2:C101,"&gt;0")</f>
-        <v>45</v>
+        <f>COUNTIF(C2:C104,"&gt;0")</f>
+        <v>46</v>
       </c>
       <c r="I15" s="65">
-        <f>COUNTIF(E2:E101,"&gt;0")</f>
-        <v>50</v>
+        <f>COUNTIF(E2:E104,"&gt;0")</f>
+        <v>51</v>
       </c>
       <c r="P15" s="44" t="s">
         <v>5</v>
@@ -2346,7 +2346,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <f t="shared" si="2"/>
         <v>42369</v>
@@ -2370,18 +2370,18 @@
       </c>
       <c r="Q16" s="49">
         <f>H1</f>
-        <v>44196</v>
+        <v>44286</v>
       </c>
       <c r="R16" s="50">
         <f t="shared" si="3"/>
-        <v>11982</v>
+        <v>11943</v>
       </c>
       <c r="S16" s="51">
         <f t="shared" si="4"/>
-        <v>11863.677212475228</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>11733.165172279972</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <f t="shared" si="2"/>
         <v>42400</v>
@@ -2413,7 +2413,7 @@
       <c r="R17" s="52"/>
       <c r="S17" s="52"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <f t="shared" si="2"/>
         <v>42429</v>
@@ -2467,7 +2467,7 @@
         <v>Bloomberg Barclays US MBS Index Total Return</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <f t="shared" si="2"/>
         <v>42460</v>
@@ -2491,27 +2491,27 @@
       </c>
       <c r="H19" s="86">
         <f t="shared" ref="H19:M23" si="5">H27*100</f>
-        <v>-1.1900000000000002</v>
+        <v>-0.38</v>
       </c>
       <c r="I19" s="83">
         <f t="shared" si="5"/>
-        <v>2.73</v>
+        <v>-0.38</v>
       </c>
       <c r="J19" s="83">
         <f t="shared" si="5"/>
-        <v>2.73</v>
+        <v>0.01</v>
       </c>
       <c r="K19" s="83">
         <f t="shared" si="5"/>
-        <v>3.63</v>
+        <v>3.39</v>
       </c>
       <c r="L19" s="83">
         <f t="shared" si="5"/>
-        <v>3.1300000000000003</v>
+        <v>2.85</v>
       </c>
       <c r="M19" s="87">
         <f t="shared" si="5"/>
-        <v>2.77</v>
+        <v>2.6</v>
       </c>
       <c r="P19" s="131" t="str">
         <f>P10</f>
@@ -2520,14 +2520,14 @@
       <c r="Q19" s="132"/>
       <c r="R19" s="55">
         <f>($R$16-R10)/R10</f>
-        <v>-1.0324605600066077E-2</v>
+        <v>-3.2548823234852279E-3</v>
       </c>
       <c r="S19" s="56">
         <f>($S$16-S10)/S10</f>
-        <v>2.4506525725379847E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-1.1000977003826073E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <f t="shared" si="2"/>
         <v>42490</v>
@@ -2551,27 +2551,27 @@
       </c>
       <c r="H20" s="86">
         <f t="shared" si="5"/>
-        <v>-1.31</v>
+        <v>-0.57000000000000006</v>
       </c>
       <c r="I20" s="83">
         <f t="shared" si="5"/>
-        <v>2.09</v>
+        <v>-0.57000000000000006</v>
       </c>
       <c r="J20" s="83">
         <f t="shared" si="5"/>
-        <v>2.09</v>
+        <v>-0.66</v>
       </c>
       <c r="K20" s="83">
         <f t="shared" si="5"/>
-        <v>2.9000000000000004</v>
+        <v>2.6599999999999997</v>
       </c>
       <c r="L20" s="83">
         <f t="shared" si="5"/>
-        <v>2.36</v>
+        <v>2.09</v>
       </c>
       <c r="M20" s="87">
         <f t="shared" si="5"/>
-        <v>1.9900000000000002</v>
+        <v>1.82</v>
       </c>
       <c r="N20" s="9"/>
       <c r="P20" s="131" t="str">
@@ -2581,14 +2581,14 @@
       <c r="Q20" s="132"/>
       <c r="R20" s="55">
         <f>($R$16-R11)/R11</f>
-        <v>3.0887034328486621E-2</v>
+        <v>-3.2548823234852279E-3</v>
       </c>
       <c r="S20" s="56">
         <f>($S$16-S11)/S11</f>
-        <v>3.8720147352044043E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-1.1000977003826073E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <f t="shared" si="2"/>
         <v>42521</v>
@@ -2612,27 +2612,27 @@
       </c>
       <c r="H21" s="86">
         <f t="shared" si="5"/>
-        <v>-1.0324605600066077</v>
+        <v>-0.32548823234852281</v>
       </c>
       <c r="I21" s="83">
         <f t="shared" si="5"/>
-        <v>3.088703432848662</v>
+        <v>-0.32548823234852281</v>
       </c>
       <c r="J21" s="83">
         <f t="shared" si="5"/>
-        <v>3.088703432848662</v>
+        <v>0.35291152004033272</v>
       </c>
       <c r="K21" s="83">
         <f t="shared" si="5"/>
-        <v>3.9</v>
+        <v>3.66</v>
       </c>
       <c r="L21" s="83">
         <f t="shared" si="5"/>
-        <v>3.36</v>
+        <v>3.08</v>
       </c>
       <c r="M21" s="87">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2.83</v>
       </c>
       <c r="N21" s="9"/>
       <c r="P21" s="131" t="str">
@@ -2642,14 +2642,14 @@
       <c r="Q21" s="132"/>
       <c r="R21" s="55">
         <f>($R$16-R12)/R12</f>
-        <v>3.0887034328486621E-2</v>
+        <v>3.5291152004033274E-3</v>
       </c>
       <c r="S21" s="56">
         <f>($S$16-S12)/S12</f>
-        <v>3.8720147352044043E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-8.7395864132060717E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <f t="shared" si="2"/>
         <v>42551</v>
@@ -2674,27 +2674,27 @@
       </c>
       <c r="H22" s="88">
         <f>H30*100</f>
-        <v>0.24506525725379846</v>
+        <v>-1.1000977003826073</v>
       </c>
       <c r="I22" s="84">
         <f t="shared" si="5"/>
-        <v>3.8720147352044041</v>
+        <v>-1.1000977003826073</v>
       </c>
       <c r="J22" s="84">
         <f t="shared" si="5"/>
-        <v>3.8720147352044041</v>
+        <v>-8.7395864132060713E-2</v>
       </c>
       <c r="K22" s="84">
         <f t="shared" si="5"/>
-        <v>3.7113039653951629</v>
+        <v>3.75</v>
       </c>
       <c r="L22" s="84">
         <f t="shared" si="5"/>
-        <v>3.0513852056778035</v>
+        <v>2.4299999999999997</v>
       </c>
       <c r="M22" s="89">
         <f t="shared" si="5"/>
-        <v>2.8400000000000003</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="N22" s="9"/>
       <c r="P22" s="131" t="str">
@@ -2704,14 +2704,14 @@
       <c r="Q22" s="132"/>
       <c r="R22" s="55">
         <f>POWER(R16/R13,365/($Q$16-$Q$13))-1</f>
-        <v>3.8927793347701689E-2</v>
+        <v>3.6504810300416857E-2</v>
       </c>
       <c r="S22" s="56">
         <f>POWER(S16/S13,365/($Q$16-$Q$13))-1</f>
-        <v>3.7113039653951629E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>3.7438435666683034E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <f t="shared" si="2"/>
         <v>42582</v>
@@ -2735,27 +2735,27 @@
       </c>
       <c r="H23" s="90">
         <f t="shared" ref="H23:M23" si="6">H31*100</f>
-        <v>-5.8500000000000005</v>
+        <v>-5.09</v>
       </c>
       <c r="I23" s="91">
         <f t="shared" si="6"/>
-        <v>-2.1399999999999997</v>
+        <v>-5.09</v>
       </c>
       <c r="J23" s="91">
         <f t="shared" si="5"/>
-        <v>-2.1399999999999997</v>
+        <v>-4.7600000000000007</v>
       </c>
       <c r="K23" s="91">
         <f t="shared" si="6"/>
-        <v>1.97</v>
+        <v>1.73</v>
       </c>
       <c r="L23" s="91">
         <f t="shared" si="5"/>
-        <v>2.12</v>
+        <v>1.8499999999999999</v>
       </c>
       <c r="M23" s="92">
         <f t="shared" si="6"/>
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="N23" s="9"/>
       <c r="P23" s="131" t="str">
@@ -2765,14 +2765,14 @@
       <c r="Q23" s="132"/>
       <c r="R23" s="55">
         <f>POWER(R16/R14,365/($Q$16-$Q$14))-1</f>
-        <v>3.357280945611385E-2</v>
+        <v>3.0814831830747957E-2</v>
       </c>
       <c r="S23" s="56">
         <f>POWER(S16/S14,365/($Q$16-$Q$14))-1</f>
-        <v>3.0513852056778035E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+        <v>2.4239474010725459E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <f t="shared" si="2"/>
         <v>42613</v>
@@ -2797,14 +2797,14 @@
       <c r="Q24" s="143"/>
       <c r="R24" s="55">
         <f>($R$16-R15)/R15</f>
-        <v>0.19819999999999999</v>
+        <v>0.1943</v>
       </c>
       <c r="S24" s="56">
         <f>($S$16-S15)/S15</f>
-        <v>0.18636772124752279</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.17331651722799724</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <f t="shared" si="2"/>
         <v>42643</v>
@@ -2834,14 +2834,14 @@
       <c r="Q25" s="141"/>
       <c r="R25" s="57">
         <f>POWER(R16/R15,365/($Q$16-$Q$15))-1</f>
-        <v>2.9997533071466354E-2</v>
+        <v>2.8291870610576808E-2</v>
       </c>
       <c r="S25" s="58">
         <f>POWER(S16/S15,365/($Q$16-$Q$15))-1</f>
-        <v>2.8328056166730509E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2.5431890685866154E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <f t="shared" si="2"/>
         <v>42674</v>
@@ -2884,7 +2884,7 @@
       <c r="R26" s="52"/>
       <c r="S26" s="52"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <f t="shared" si="2"/>
         <v>42704</v>
@@ -2907,22 +2907,22 @@
         <v>12</v>
       </c>
       <c r="H27" s="112">
-        <v>-1.1900000000000001E-2</v>
+        <v>-3.8E-3</v>
       </c>
       <c r="I27" s="112">
-        <v>2.7300000000000001E-2</v>
+        <v>-3.8E-3</v>
       </c>
       <c r="J27" s="112">
-        <v>2.7300000000000001E-2</v>
+        <v>1E-4</v>
       </c>
       <c r="K27" s="112">
-        <v>3.6299999999999999E-2</v>
+        <v>3.39E-2</v>
       </c>
       <c r="L27" s="112">
-        <v>3.1300000000000001E-2</v>
+        <v>2.8500000000000001E-2</v>
       </c>
       <c r="M27" s="112">
-        <v>2.7699999999999999E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="N27" s="9" t="s">
         <v>14</v>
@@ -2933,7 +2933,7 @@
       <c r="Q27" s="27"/>
       <c r="R27" s="28"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <f t="shared" si="2"/>
         <v>42735</v>
@@ -2956,22 +2956,22 @@
         <v>13</v>
       </c>
       <c r="H28" s="112">
-        <v>-1.3100000000000001E-2</v>
+        <v>-5.7000000000000002E-3</v>
       </c>
       <c r="I28" s="112">
+        <v>-5.7000000000000002E-3</v>
+      </c>
+      <c r="J28" s="112">
+        <v>-6.6E-3</v>
+      </c>
+      <c r="K28" s="112">
+        <v>2.6599999999999999E-2</v>
+      </c>
+      <c r="L28" s="112">
         <v>2.0899999999999998E-2</v>
       </c>
-      <c r="J28" s="112">
-        <v>2.0899999999999998E-2</v>
-      </c>
-      <c r="K28" s="112">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="L28" s="112">
-        <v>2.3599999999999999E-2</v>
-      </c>
       <c r="M28" s="112">
-        <v>1.9900000000000001E-2</v>
+        <v>1.8200000000000001E-2</v>
       </c>
       <c r="N28" s="9" t="s">
         <v>14</v>
@@ -2984,7 +2984,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <f t="shared" si="2"/>
         <v>42766</v>
@@ -3008,39 +3008,39 @@
       </c>
       <c r="H29" s="93">
         <f>R19</f>
-        <v>-1.0324605600066077E-2</v>
+        <v>-3.2548823234852279E-3</v>
       </c>
       <c r="I29" s="93">
         <f>R20</f>
-        <v>3.0887034328486621E-2</v>
+        <v>-3.2548823234852279E-3</v>
       </c>
       <c r="J29" s="93">
         <f>R21</f>
-        <v>3.0887034328486621E-2</v>
+        <v>3.5291152004033274E-3</v>
       </c>
       <c r="K29" s="112">
-        <v>3.9E-2</v>
+        <v>3.6600000000000001E-2</v>
       </c>
       <c r="L29" s="112">
-        <v>3.3599999999999998E-2</v>
+        <v>3.0800000000000001E-2</v>
       </c>
       <c r="M29" s="112">
-        <v>0.03</v>
+        <v>2.8299999999999999E-2</v>
       </c>
       <c r="P29" s="34" t="s">
         <v>12</v>
       </c>
       <c r="Q29" s="31">
-        <v>2.29E-2</v>
+        <v>2.76E-2</v>
       </c>
       <c r="R29" s="59">
-        <v>1.7500000000000002E-2</v>
+        <v>2.18E-2</v>
       </c>
       <c r="S29" s="137" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <f t="shared" si="2"/>
         <v>42794</v>
@@ -3065,40 +3065,38 @@
       </c>
       <c r="H30" s="93">
         <f>S19</f>
-        <v>2.4506525725379847E-3</v>
+        <v>-1.1000977003826073E-2</v>
       </c>
       <c r="I30" s="93">
         <f>S20</f>
-        <v>3.8720147352044043E-2</v>
+        <v>-1.1000977003826073E-2</v>
       </c>
       <c r="J30" s="93">
         <f>S21</f>
-        <v>3.8720147352044043E-2</v>
-      </c>
-      <c r="K30" s="93">
-        <f>S22</f>
-        <v>3.7113039653951629E-2</v>
-      </c>
-      <c r="L30" s="93">
-        <f>S23</f>
-        <v>3.0513852056778035E-2</v>
+        <v>-8.7395864132060717E-4</v>
+      </c>
+      <c r="K30" s="112">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="L30" s="112">
+        <v>2.4299999999999999E-2</v>
       </c>
       <c r="M30" s="112">
-        <v>2.8400000000000002E-2</v>
+        <v>2.5499999999999998E-2</v>
       </c>
       <c r="N30" s="9"/>
       <c r="P30" s="35" t="s">
         <v>13</v>
       </c>
       <c r="Q30" s="32">
-        <v>1.7399999999999999E-2</v>
+        <v>1.9199999999999998E-2</v>
       </c>
       <c r="R30" s="60">
-        <v>1.17E-2</v>
+        <v>1.32E-2</v>
       </c>
       <c r="S30" s="137"/>
     </row>
-    <row r="31" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <f t="shared" si="2"/>
         <v>42825</v>
@@ -3121,22 +3119,22 @@
         <v>16</v>
       </c>
       <c r="H31" s="112">
-        <v>-5.8500000000000003E-2</v>
+        <v>-5.0900000000000001E-2</v>
       </c>
       <c r="I31" s="112">
-        <v>-2.1399999999999999E-2</v>
+        <v>-5.0900000000000001E-2</v>
       </c>
       <c r="J31" s="112">
-        <v>-2.1399999999999999E-2</v>
+        <v>-4.7600000000000003E-2</v>
       </c>
       <c r="K31" s="112">
-        <v>1.9699999999999999E-2</v>
+        <v>1.7299999999999999E-2</v>
       </c>
       <c r="L31" s="112">
-        <v>2.12E-2</v>
+        <v>1.8499999999999999E-2</v>
       </c>
       <c r="M31" s="112">
-        <v>1.95E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="N31" s="9" t="s">
         <v>14</v>
@@ -3145,14 +3143,14 @@
         <v>15</v>
       </c>
       <c r="Q31" s="33">
-        <v>2.5700000000000001E-2</v>
+        <v>3.1099999999999999E-2</v>
       </c>
       <c r="R31" s="61">
-        <v>2.01E-2</v>
+        <v>2.5100000000000001E-2</v>
       </c>
       <c r="S31" s="137"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <f t="shared" si="2"/>
         <v>42855</v>
@@ -3173,7 +3171,7 @@
       </c>
       <c r="M32" s="4"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <f t="shared" si="2"/>
         <v>42886</v>
@@ -3194,7 +3192,7 @@
       </c>
       <c r="M33" s="4"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <f t="shared" si="2"/>
         <v>42916</v>
@@ -3215,7 +3213,7 @@
       </c>
       <c r="M34" s="4"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <f t="shared" si="2"/>
         <v>42947</v>
@@ -3236,7 +3234,7 @@
       </c>
       <c r="M35" s="4"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <f t="shared" si="2"/>
         <v>42978</v>
@@ -3257,7 +3255,7 @@
       </c>
       <c r="M36" s="4"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <f t="shared" si="2"/>
         <v>43008</v>
@@ -3278,7 +3276,7 @@
       </c>
       <c r="M37" s="4"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <f t="shared" si="2"/>
         <v>43039</v>
@@ -3299,7 +3297,7 @@
       </c>
       <c r="M38" s="4"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <f t="shared" si="2"/>
         <v>43069</v>
@@ -3320,7 +3318,7 @@
       </c>
       <c r="M39" s="4"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <f t="shared" si="2"/>
         <v>43100</v>
@@ -3341,7 +3339,7 @@
       </c>
       <c r="M40" s="4"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <f t="shared" si="2"/>
         <v>43131</v>
@@ -3362,7 +3360,7 @@
       </c>
       <c r="M41" s="4"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <f t="shared" si="2"/>
         <v>43159</v>
@@ -3383,7 +3381,7 @@
       </c>
       <c r="M42" s="4"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <f t="shared" si="2"/>
         <v>43190</v>
@@ -3404,7 +3402,7 @@
       </c>
       <c r="M43" s="4"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <f t="shared" si="2"/>
         <v>43220</v>
@@ -3425,7 +3423,7 @@
       </c>
       <c r="M44" s="4"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <f t="shared" si="2"/>
         <v>43251</v>
@@ -3446,7 +3444,7 @@
       </c>
       <c r="M45" s="4"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <f t="shared" si="2"/>
         <v>43281</v>
@@ -3467,7 +3465,7 @@
       </c>
       <c r="M46" s="4"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <f t="shared" si="2"/>
         <v>43312</v>
@@ -3488,7 +3486,7 @@
       </c>
       <c r="M47" s="4"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <f t="shared" si="2"/>
         <v>43343</v>
@@ -3509,7 +3507,7 @@
       </c>
       <c r="M48" s="4"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <f t="shared" si="2"/>
         <v>43373</v>
@@ -3530,7 +3528,7 @@
       </c>
       <c r="M49" s="4"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <f t="shared" si="2"/>
         <v>43404</v>
@@ -3551,7 +3549,7 @@
       </c>
       <c r="M50" s="4"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <f t="shared" si="2"/>
         <v>43434</v>
@@ -3572,7 +3570,7 @@
       </c>
       <c r="M51" s="4"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <f t="shared" si="2"/>
         <v>43465</v>
@@ -3593,7 +3591,7 @@
       </c>
       <c r="M52" s="4"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <f t="shared" si="2"/>
         <v>43496</v>
@@ -3614,7 +3612,7 @@
       </c>
       <c r="M53" s="4"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <f t="shared" si="2"/>
         <v>43524</v>
@@ -3635,7 +3633,7 @@
       </c>
       <c r="M54" s="4"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <f t="shared" si="2"/>
         <v>43555</v>
@@ -3656,7 +3654,7 @@
       </c>
       <c r="M55" s="4"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <f t="shared" si="2"/>
         <v>43585</v>
@@ -3677,7 +3675,7 @@
       </c>
       <c r="M56" s="4"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <f t="shared" si="2"/>
         <v>43616</v>
@@ -3698,7 +3696,7 @@
       </c>
       <c r="M57" s="4"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <f t="shared" si="2"/>
         <v>43646</v>
@@ -3719,7 +3717,7 @@
       </c>
       <c r="M58" s="4"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <f t="shared" si="2"/>
         <v>43677</v>
@@ -3740,7 +3738,7 @@
       </c>
       <c r="M59" s="4"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <f t="shared" si="2"/>
         <v>43708</v>
@@ -3761,7 +3759,7 @@
       </c>
       <c r="M60" s="4"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <f t="shared" si="2"/>
         <v>43738</v>
@@ -3782,7 +3780,7 @@
       </c>
       <c r="M61" s="4"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <f t="shared" si="2"/>
         <v>43769</v>
@@ -3803,7 +3801,7 @@
       </c>
       <c r="M62" s="4"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <f t="shared" si="2"/>
         <v>43799</v>
@@ -3824,7 +3822,7 @@
       </c>
       <c r="M63" s="4"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <f t="shared" si="2"/>
         <v>43830</v>
@@ -3845,7 +3843,7 @@
       </c>
       <c r="M64" s="4"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <f t="shared" si="2"/>
         <v>43861</v>
@@ -3866,7 +3864,7 @@
       </c>
       <c r="M65" s="4"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <f t="shared" si="2"/>
         <v>43890</v>
@@ -3887,7 +3885,7 @@
       </c>
       <c r="M66" s="4"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <f t="shared" si="2"/>
         <v>43921</v>
@@ -3896,7 +3894,7 @@
         <v>11901</v>
       </c>
       <c r="C67" s="95">
-        <f t="shared" ref="C67:C84" si="7">(B67-B66)/B66</f>
+        <f t="shared" ref="C67:C79" si="7">(B67-B66)/B66</f>
         <v>-1.2447099825740602E-2</v>
       </c>
       <c r="D67" s="104">
@@ -3908,7 +3906,7 @@
       </c>
       <c r="M67" s="4"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <f t="shared" si="2"/>
         <v>43951</v>
@@ -3921,7 +3919,7 @@
         <v>1.3696328039660532E-2</v>
       </c>
       <c r="D68" s="104">
-        <f t="shared" ref="D68:D76" si="8">D67*(1+E68)</f>
+        <f t="shared" ref="D68:D79" si="8">D67*(1+E68)</f>
         <v>11817.977573987455</v>
       </c>
       <c r="E68" s="110">
@@ -3929,9 +3927,9 @@
       </c>
       <c r="M68" s="4"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
-        <f t="shared" ref="A69:A76" si="9">EOMONTH(A68,1)</f>
+        <f t="shared" ref="A69:A79" si="9">EOMONTH(A68,1)</f>
         <v>43982</v>
       </c>
       <c r="B69" s="117">
@@ -3950,7 +3948,7 @@
       </c>
       <c r="M69" s="4"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <f t="shared" si="9"/>
         <v>44012</v>
@@ -3971,7 +3969,7 @@
       </c>
       <c r="M70" s="4"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <f t="shared" si="9"/>
         <v>44043</v>
@@ -3992,7 +3990,7 @@
       </c>
       <c r="M71" s="4"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <f t="shared" si="9"/>
         <v>44074</v>
@@ -4013,7 +4011,7 @@
       </c>
       <c r="M72" s="4"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <f t="shared" si="9"/>
         <v>44104</v>
@@ -4034,7 +4032,7 @@
       </c>
       <c r="M73" s="4"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <f t="shared" si="9"/>
         <v>44135</v>
@@ -4055,7 +4053,7 @@
       </c>
       <c r="M74" s="4"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <f t="shared" si="9"/>
         <v>44165</v>
@@ -4076,7 +4074,7 @@
       </c>
       <c r="M75" s="4"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <f t="shared" si="9"/>
         <v>44196</v>
@@ -4097,68 +4095,107 @@
       </c>
       <c r="M76" s="4"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G77" s="23"/>
-      <c r="H77" s="23"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
-      <c r="L77" s="7"/>
-      <c r="M77" s="23"/>
-      <c r="N77" s="23"/>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G78" s="23"/>
-      <c r="H78" s="23"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
-      <c r="K78" s="7"/>
-      <c r="L78" s="7"/>
-      <c r="M78" s="23"/>
-      <c r="N78" s="23"/>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" s="6">
+        <f t="shared" si="9"/>
+        <v>44227</v>
+      </c>
+      <c r="B77" s="117">
+        <v>11928</v>
+      </c>
+      <c r="C77" s="95">
+        <f t="shared" si="7"/>
+        <v>-4.5067601402103159E-3</v>
+      </c>
+      <c r="D77" s="104">
+        <f t="shared" si="8"/>
+        <v>11872.817140172783</v>
+      </c>
+      <c r="E77" s="110">
+        <v>7.7041270879685264E-4</v>
+      </c>
+      <c r="M77" s="4"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" s="6">
+        <f t="shared" si="9"/>
+        <v>44255</v>
+      </c>
+      <c r="B78" s="117">
+        <v>11959</v>
+      </c>
+      <c r="C78" s="95">
+        <f t="shared" si="7"/>
+        <v>2.5989268947015426E-3</v>
+      </c>
+      <c r="D78" s="104">
+        <f t="shared" si="8"/>
+        <v>11793.519331712991</v>
+      </c>
+      <c r="E78" s="110">
+        <v>-6.6789379069506216E-3</v>
+      </c>
+      <c r="M78" s="4"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" s="6">
+        <f t="shared" si="9"/>
+        <v>44286</v>
+      </c>
+      <c r="B79" s="117">
+        <v>11943</v>
+      </c>
+      <c r="C79" s="95">
+        <f t="shared" si="7"/>
+        <v>-1.3379045070658082E-3</v>
+      </c>
+      <c r="D79" s="104">
+        <f t="shared" si="8"/>
+        <v>11733.165172279972</v>
+      </c>
+      <c r="E79" s="110">
+        <v>-5.1175698903316302E-3</v>
+      </c>
       <c r="M79" s="4"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
-      <c r="M80" s="4"/>
-    </row>
-    <row r="81" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
-      <c r="M81" s="4"/>
-    </row>
-    <row r="82" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H82" s="20"/>
-      <c r="I82" s="20"/>
-      <c r="J82" s="20"/>
-      <c r="K82" s="20"/>
-      <c r="L82" s="20"/>
-      <c r="M82" s="20"/>
-    </row>
-    <row r="83" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H83" s="20"/>
-      <c r="I83" s="20"/>
-      <c r="J83" s="20"/>
-      <c r="K83" s="20"/>
-      <c r="L83" s="20"/>
-      <c r="M83" s="20"/>
-    </row>
-    <row r="84" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H84" s="20"/>
-      <c r="I84" s="20"/>
-      <c r="J84" s="20"/>
-      <c r="K84" s="20"/>
-      <c r="L84" s="20"/>
-      <c r="M84" s="20"/>
-    </row>
-    <row r="85" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G80" s="23"/>
+      <c r="H80" s="23"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="23"/>
+      <c r="N80" s="23"/>
+    </row>
+    <row r="81" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G81" s="23"/>
+      <c r="H81" s="23"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="7"/>
+      <c r="M81" s="23"/>
+      <c r="N81" s="23"/>
+    </row>
+    <row r="82" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="M82" s="4"/>
+    </row>
+    <row r="83" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+    </row>
+    <row r="84" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+    </row>
+    <row r="85" spans="7:14" x14ac:dyDescent="0.25">
       <c r="H85" s="20"/>
       <c r="I85" s="20"/>
       <c r="J85" s="20"/>
@@ -4166,7 +4203,7 @@
       <c r="L85" s="20"/>
       <c r="M85" s="20"/>
     </row>
-    <row r="86" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="7:14" x14ac:dyDescent="0.25">
       <c r="H86" s="20"/>
       <c r="I86" s="20"/>
       <c r="J86" s="20"/>
@@ -4174,7 +4211,7 @@
       <c r="L86" s="20"/>
       <c r="M86" s="20"/>
     </row>
-    <row r="87" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="7:14" x14ac:dyDescent="0.25">
       <c r="H87" s="20"/>
       <c r="I87" s="20"/>
       <c r="J87" s="20"/>
@@ -4182,7 +4219,7 @@
       <c r="L87" s="20"/>
       <c r="M87" s="20"/>
     </row>
-    <row r="88" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="7:14" x14ac:dyDescent="0.25">
       <c r="H88" s="20"/>
       <c r="I88" s="20"/>
       <c r="J88" s="20"/>
@@ -4190,7 +4227,7 @@
       <c r="L88" s="20"/>
       <c r="M88" s="20"/>
     </row>
-    <row r="89" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="7:14" x14ac:dyDescent="0.25">
       <c r="H89" s="20"/>
       <c r="I89" s="20"/>
       <c r="J89" s="20"/>
@@ -4198,7 +4235,7 @@
       <c r="L89" s="20"/>
       <c r="M89" s="20"/>
     </row>
-    <row r="90" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="7:14" x14ac:dyDescent="0.25">
       <c r="H90" s="20"/>
       <c r="I90" s="20"/>
       <c r="J90" s="20"/>
@@ -4206,7 +4243,7 @@
       <c r="L90" s="20"/>
       <c r="M90" s="20"/>
     </row>
-    <row r="91" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="7:14" x14ac:dyDescent="0.25">
       <c r="H91" s="20"/>
       <c r="I91" s="20"/>
       <c r="J91" s="20"/>
@@ -4214,31 +4251,31 @@
       <c r="L91" s="20"/>
       <c r="M91" s="20"/>
     </row>
-    <row r="92" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="7:14" x14ac:dyDescent="0.25">
       <c r="H92" s="20"/>
-      <c r="I92" s="21"/>
-      <c r="J92" s="21"/>
-      <c r="K92" s="21"/>
-      <c r="L92" s="21"/>
-      <c r="M92" s="21"/>
-    </row>
-    <row r="93" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="I92" s="20"/>
+      <c r="J92" s="20"/>
+      <c r="K92" s="20"/>
+      <c r="L92" s="20"/>
+      <c r="M92" s="20"/>
+    </row>
+    <row r="93" spans="7:14" x14ac:dyDescent="0.25">
       <c r="H93" s="20"/>
-      <c r="I93" s="21"/>
-      <c r="J93" s="21"/>
-      <c r="K93" s="21"/>
-      <c r="L93" s="21"/>
-      <c r="M93" s="21"/>
-    </row>
-    <row r="94" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="I93" s="20"/>
+      <c r="J93" s="20"/>
+      <c r="K93" s="20"/>
+      <c r="L93" s="20"/>
+      <c r="M93" s="20"/>
+    </row>
+    <row r="94" spans="7:14" x14ac:dyDescent="0.25">
       <c r="H94" s="20"/>
-      <c r="I94" s="21"/>
-      <c r="J94" s="21"/>
-      <c r="K94" s="21"/>
-      <c r="L94" s="21"/>
-      <c r="M94" s="21"/>
-    </row>
-    <row r="95" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="I94" s="20"/>
+      <c r="J94" s="20"/>
+      <c r="K94" s="20"/>
+      <c r="L94" s="20"/>
+      <c r="M94" s="20"/>
+    </row>
+    <row r="95" spans="7:14" x14ac:dyDescent="0.25">
       <c r="H95" s="20"/>
       <c r="I95" s="21"/>
       <c r="J95" s="21"/>
@@ -4246,7 +4283,7 @@
       <c r="L95" s="21"/>
       <c r="M95" s="21"/>
     </row>
-    <row r="96" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="7:14" x14ac:dyDescent="0.25">
       <c r="H96" s="20"/>
       <c r="I96" s="21"/>
       <c r="J96" s="21"/>
@@ -4254,7 +4291,7 @@
       <c r="L96" s="21"/>
       <c r="M96" s="21"/>
     </row>
-    <row r="97" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H97" s="20"/>
       <c r="I97" s="21"/>
       <c r="J97" s="21"/>
@@ -4262,7 +4299,7 @@
       <c r="L97" s="21"/>
       <c r="M97" s="21"/>
     </row>
-    <row r="98" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H98" s="20"/>
       <c r="I98" s="21"/>
       <c r="J98" s="21"/>
@@ -4270,7 +4307,7 @@
       <c r="L98" s="21"/>
       <c r="M98" s="21"/>
     </row>
-    <row r="99" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H99" s="20"/>
       <c r="I99" s="21"/>
       <c r="J99" s="21"/>
@@ -4278,7 +4315,7 @@
       <c r="L99" s="21"/>
       <c r="M99" s="21"/>
     </row>
-    <row r="100" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H100" s="20"/>
       <c r="I100" s="21"/>
       <c r="J100" s="21"/>
@@ -4286,7 +4323,7 @@
       <c r="L100" s="21"/>
       <c r="M100" s="21"/>
     </row>
-    <row r="101" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H101" s="20"/>
       <c r="I101" s="21"/>
       <c r="J101" s="21"/>
@@ -4294,7 +4331,7 @@
       <c r="L101" s="21"/>
       <c r="M101" s="21"/>
     </row>
-    <row r="102" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H102" s="20"/>
       <c r="I102" s="21"/>
       <c r="J102" s="21"/>
@@ -4302,7 +4339,7 @@
       <c r="L102" s="21"/>
       <c r="M102" s="21"/>
     </row>
-    <row r="103" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H103" s="20"/>
       <c r="I103" s="21"/>
       <c r="J103" s="21"/>
@@ -4310,7 +4347,7 @@
       <c r="L103" s="21"/>
       <c r="M103" s="21"/>
     </row>
-    <row r="104" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H104" s="20"/>
       <c r="I104" s="21"/>
       <c r="J104" s="21"/>
@@ -4318,7 +4355,7 @@
       <c r="L104" s="21"/>
       <c r="M104" s="21"/>
     </row>
-    <row r="105" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H105" s="20"/>
       <c r="I105" s="21"/>
       <c r="J105" s="21"/>
@@ -4326,7 +4363,7 @@
       <c r="L105" s="21"/>
       <c r="M105" s="21"/>
     </row>
-    <row r="106" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H106" s="20"/>
       <c r="I106" s="21"/>
       <c r="J106" s="21"/>
@@ -4334,7 +4371,7 @@
       <c r="L106" s="21"/>
       <c r="M106" s="21"/>
     </row>
-    <row r="107" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H107" s="20"/>
       <c r="I107" s="21"/>
       <c r="J107" s="21"/>
@@ -4342,7 +4379,7 @@
       <c r="L107" s="21"/>
       <c r="M107" s="21"/>
     </row>
-    <row r="108" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H108" s="20"/>
       <c r="I108" s="21"/>
       <c r="J108" s="21"/>
@@ -4350,13 +4387,37 @@
       <c r="L108" s="21"/>
       <c r="M108" s="21"/>
     </row>
-    <row r="109" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H109" s="20"/>
       <c r="I109" s="21"/>
       <c r="J109" s="21"/>
       <c r="K109" s="21"/>
       <c r="L109" s="21"/>
       <c r="M109" s="21"/>
+    </row>
+    <row r="110" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H110" s="20"/>
+      <c r="I110" s="21"/>
+      <c r="J110" s="21"/>
+      <c r="K110" s="21"/>
+      <c r="L110" s="21"/>
+      <c r="M110" s="21"/>
+    </row>
+    <row r="111" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H111" s="20"/>
+      <c r="I111" s="21"/>
+      <c r="J111" s="21"/>
+      <c r="K111" s="21"/>
+      <c r="L111" s="21"/>
+      <c r="M111" s="21"/>
+    </row>
+    <row r="112" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H112" s="20"/>
+      <c r="I112" s="21"/>
+      <c r="J112" s="21"/>
+      <c r="K112" s="21"/>
+      <c r="L112" s="21"/>
+      <c r="M112" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -4387,22 +4448,22 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A19DED-44BB-47D3-B696-F7967134FFD9}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="113" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="114"/>
-    <col min="3" max="3" width="31.44140625" style="114" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="113" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="114"/>
+    <col min="3" max="3" width="31.42578125" style="114" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="113" t="s">
         <v>0</v>
       </c>
@@ -4413,7 +4474,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="113">
         <f>'IOX Fact Sheet Backup'!A2</f>
         <v>41963</v>
@@ -4427,7 +4488,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="113">
         <f>'IOX Fact Sheet Backup'!A3</f>
         <v>41973</v>
@@ -4441,7 +4502,7 @@
         <v>10039.265946365475</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="113">
         <f>'IOX Fact Sheet Backup'!A4</f>
         <v>42004</v>
@@ -4455,7 +4516,7 @@
         <v>10054.788505136741</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="113">
         <f>'IOX Fact Sheet Backup'!A5</f>
         <v>42035</v>
@@ -4469,7 +4530,7 @@
         <v>10140.111517330119</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="113">
         <f>'IOX Fact Sheet Backup'!A6</f>
         <v>42063</v>
@@ -4483,7 +4544,7 @@
         <v>10123.618798635647</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="113">
         <f>'IOX Fact Sheet Backup'!A7</f>
         <v>42094</v>
@@ -4497,7 +4558,7 @@
         <v>10161.097608300483</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="113">
         <f>'IOX Fact Sheet Backup'!A8</f>
         <v>42124</v>
@@ -4511,7 +4572,7 @@
         <v>10165.335675333428</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="113">
         <f>'IOX Fact Sheet Backup'!A9</f>
         <v>42155</v>
@@ -4525,7 +4586,7 @@
         <v>10162.986867098303</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="113">
         <f>'IOX Fact Sheet Backup'!A10</f>
         <v>42185</v>
@@ -4539,7 +4600,7 @@
         <v>10085.476195339148</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="113">
         <f>'IOX Fact Sheet Backup'!A11</f>
         <v>42216</v>
@@ -4553,7 +4614,7 @@
         <v>10149.047200833318</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="113">
         <f>'IOX Fact Sheet Backup'!A12</f>
         <v>42247</v>
@@ -4567,7 +4628,7 @@
         <v>10157.625456996386</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="113">
         <f>'IOX Fact Sheet Backup'!A13</f>
         <v>42277</v>
@@ -4581,7 +4642,7 @@
         <v>10217.009456506199</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="113">
         <f>'IOX Fact Sheet Backup'!A14</f>
         <v>42308</v>
@@ -4595,7 +4656,7 @@
         <v>10223.749514920037</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="113">
         <f>'IOX Fact Sheet Backup'!A15</f>
         <v>42338</v>
@@ -4609,7 +4670,7 @@
         <v>10209.860909703641</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="113">
         <f>'IOX Fact Sheet Backup'!A16</f>
         <v>42369</v>
@@ -4623,7 +4684,7 @@
         <v>10206.541941545313</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="113">
         <f>'IOX Fact Sheet Backup'!A17</f>
         <v>42400</v>
@@ -4637,7 +4698,7 @@
         <v>10338.994301586978</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="113">
         <f>'IOX Fact Sheet Backup'!A18</f>
         <v>42429</v>
@@ -4651,7 +4712,7 @@
         <v>10377.596454320787</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="113">
         <f>'IOX Fact Sheet Backup'!A19</f>
         <v>42460</v>
@@ -4665,7 +4726,7 @@
         <v>10408.284144523192</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="113">
         <f>'IOX Fact Sheet Backup'!A20</f>
         <v>42490</v>
@@ -4679,7 +4740,7 @@
         <v>10425.134290557791</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="113">
         <f>'IOX Fact Sheet Backup'!A21</f>
         <v>42521</v>
@@ -4693,7 +4754,7 @@
         <v>10438.614407385468</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="113">
         <f>'IOX Fact Sheet Backup'!A22</f>
         <v>42551</v>
@@ -4707,7 +4768,7 @@
         <v>10523.426809092949</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="113">
         <f>'IOX Fact Sheet Backup'!A23</f>
         <v>42582</v>
@@ -4721,7 +4782,7 @@
         <v>10544.974571597801</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="113">
         <f>'IOX Fact Sheet Backup'!A24</f>
         <v>42613</v>
@@ -4735,7 +4796,7 @@
         <v>10557.127101162148</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="113">
         <f>'IOX Fact Sheet Backup'!A25</f>
         <v>42643</v>
@@ -4749,7 +4810,7 @@
         <v>10586.180837809681</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="113">
         <f>'IOX Fact Sheet Backup'!A26</f>
         <v>42674</v>
@@ -4763,7 +4824,7 @@
         <v>10558.3525663283</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="113">
         <f>'IOX Fact Sheet Backup'!A27</f>
         <v>42704</v>
@@ -4777,7 +4838,7 @@
         <v>10377.494332223603</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="113">
         <f>'IOX Fact Sheet Backup'!A28</f>
         <v>42735</v>
@@ -4791,7 +4852,7 @@
         <v>10377.341149077834</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="113">
         <f>'IOX Fact Sheet Backup'!A29</f>
         <v>42766</v>
@@ -4805,7 +4866,7 @@
         <v>10373.817936725145</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="113">
         <f>'IOX Fact Sheet Backup'!A30</f>
         <v>42794</v>
@@ -4819,7 +4880,7 @@
         <v>10423.449275954326</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="113">
         <f>'IOX Fact Sheet Backup'!A31</f>
         <v>42825</v>
@@ -4833,7 +4894,7 @@
         <v>10426.41081677253</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="113">
         <f>'IOX Fact Sheet Backup'!A32</f>
         <v>42855</v>
@@ -4847,7 +4908,7 @@
         <v>10494.424133494002</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="113">
         <f>'IOX Fact Sheet Backup'!A33</f>
         <v>42886</v>
@@ -4861,7 +4922,7 @@
         <v>10559.578031494451</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="113">
         <f>'IOX Fact Sheet Backup'!A34</f>
         <v>42916</v>
@@ -4875,7 +4936,7 @@
         <v>10517.146300116414</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="113">
         <f>'IOX Fact Sheet Backup'!A35</f>
         <v>42947</v>
@@ -4889,7 +4950,7 @@
         <v>10564.68413635342</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="113">
         <f>'IOX Fact Sheet Backup'!A36</f>
         <v>42978</v>
@@ -4903,7 +4964,7 @@
         <v>10641.888441821036</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="113">
         <f>'IOX Fact Sheet Backup'!A37</f>
         <v>43008</v>
@@ -4917,7 +4978,7 @@
         <v>10618.042932129649</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="113">
         <f>'IOX Fact Sheet Backup'!A38</f>
         <v>43039</v>
@@ -4931,7 +4992,7 @@
         <v>10614.723963971317</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="113">
         <f>'IOX Fact Sheet Backup'!A39</f>
         <v>43069</v>
@@ -4945,7 +5006,7 @@
         <v>10599.40564939441</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="113">
         <f>'IOX Fact Sheet Backup'!A40</f>
         <v>43100</v>
@@ -4959,7 +5020,7 @@
         <v>10634.025040338223</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="113">
         <f>'IOX Fact Sheet Backup'!A41</f>
         <v>43131</v>
@@ -4973,7 +5034,7 @@
         <v>10509.385020730779</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="113">
         <f>'IOX Fact Sheet Backup'!A42</f>
         <v>43159</v>
@@ -4987,7 +5048,7 @@
         <v>10440.452605134693</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="113">
         <f>'IOX Fact Sheet Backup'!A43</f>
         <v>43190</v>
@@ -5001,7 +5062,7 @@
         <v>10507.138334592833</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="113">
         <f>'IOX Fact Sheet Backup'!A44</f>
         <v>43220</v>
@@ -5015,7 +5076,7 @@
         <v>10454.341210351089</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="113">
         <f>'IOX Fact Sheet Backup'!A45</f>
         <v>43251</v>
@@ -5029,7 +5090,7 @@
         <v>10527.409570882939</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="113">
         <f>'IOX Fact Sheet Backup'!A46</f>
         <v>43281</v>
@@ -5043,7 +5104,7 @@
         <v>10532.515675741908</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="113">
         <f>'IOX Fact Sheet Backup'!A47</f>
         <v>43312</v>
@@ -5057,7 +5118,7 @@
         <v>10521.384367149356</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="113">
         <f>'IOX Fact Sheet Backup'!A48</f>
         <v>43343</v>
@@ -5071,7 +5132,7 @@
         <v>10585.108555789295</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="113">
         <f>'IOX Fact Sheet Backup'!A49</f>
         <v>43373</v>
@@ -5085,7 +5146,7 @@
         <v>10520.107840934614</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="113">
         <f>'IOX Fact Sheet Backup'!A50</f>
         <v>43404</v>
@@ -5099,7 +5160,7 @@
         <v>10453.779538816601</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="113">
         <f>'IOX Fact Sheet Backup'!A51</f>
         <v>43434</v>
@@ -5113,7 +5174,7 @@
         <v>10547.987173464588</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="113">
         <f>'IOX Fact Sheet Backup'!A52</f>
         <v>43465</v>
@@ -5127,7 +5188,7 @@
         <v>10739.26186148158</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="113">
         <f>'IOX Fact Sheet Backup'!A53</f>
         <v>43496</v>
@@ -5141,7 +5202,7 @@
         <v>10824.3806294806</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="113">
         <f>'IOX Fact Sheet Backup'!A54</f>
         <v>43524</v>
@@ -5155,7 +5216,7 @@
         <v>10814.576908151379</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="113">
         <f>'IOX Fact Sheet Backup'!A55</f>
         <v>43555</v>
@@ -5169,7 +5230,7 @@
         <v>10971.998120953407</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="113">
         <f>'IOX Fact Sheet Backup'!A56</f>
         <v>43585</v>
@@ -5183,7 +5244,7 @@
         <v>10965.513367782516</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="113">
         <f>'IOX Fact Sheet Backup'!A57</f>
         <v>43616</v>
@@ -5197,7 +5258,7 @@
         <v>11107.258838667505</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="113">
         <f>'IOX Fact Sheet Backup'!A58</f>
         <v>43646</v>
@@ -5211,7 +5272,7 @@
         <v>11187.169379710376</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="113">
         <f>'IOX Fact Sheet Backup'!A59</f>
         <v>43677</v>
@@ -5225,7 +5286,7 @@
         <v>11232.358407712254</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="113">
         <f>'IOX Fact Sheet Backup'!A60</f>
         <v>43708</v>
@@ -5239,7 +5300,7 @@
         <v>11332.642307142412</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="113">
         <f>'IOX Fact Sheet Backup'!A61</f>
         <v>43738</v>
@@ -5253,7 +5314,7 @@
         <v>11340.658891770994</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="113">
         <f>'IOX Fact Sheet Backup'!A62</f>
         <v>43769</v>
@@ -5267,7 +5328,7 @@
         <v>11380.690753865316</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="113">
         <f>'IOX Fact Sheet Backup'!A63</f>
         <v>43799</v>
@@ -5281,7 +5342,7 @@
         <v>11389.88174261146</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="113">
         <f>'IOX Fact Sheet Backup'!A64</f>
         <v>43830</v>
@@ -5295,7 +5356,7 @@
         <v>11421.437470639894</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="113">
         <f>'IOX Fact Sheet Backup'!A65</f>
         <v>43861</v>
@@ -5309,7 +5370,7 @@
         <v>11501.245889585585</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="113">
         <f>'IOX Fact Sheet Backup'!A66</f>
         <v>43890</v>
@@ -5323,7 +5384,7 @@
         <v>11620.473438042522</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="113">
         <f>'IOX Fact Sheet Backup'!A67</f>
         <v>43921</v>
@@ -5337,7 +5398,7 @@
         <v>11743.428443046503</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="113">
         <f>'IOX Fact Sheet Backup'!A68</f>
         <v>43951</v>
@@ -5351,7 +5412,7 @@
         <v>11817.977573987455</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="113">
         <f>'IOX Fact Sheet Backup'!A69</f>
         <v>43982</v>
@@ -5365,7 +5426,7 @@
         <v>11832.427850738337</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="113">
         <f>'IOX Fact Sheet Backup'!A70</f>
         <v>44012</v>
@@ -5379,7 +5440,7 @@
         <v>11821.602908437322</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="113">
         <f>'IOX Fact Sheet Backup'!A71</f>
         <v>44043</v>
@@ -5393,7 +5454,7 @@
         <v>11842.691121504866</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="113">
         <f>'IOX Fact Sheet Backup'!A72</f>
         <v>44074</v>
@@ -5407,7 +5468,7 @@
         <v>11847.337676926527</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="113">
         <f>'IOX Fact Sheet Backup'!A73</f>
         <v>44104</v>
@@ -5421,7 +5482,7 @@
         <v>11834.674536876282</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="113">
         <f>'IOX Fact Sheet Backup'!A74</f>
         <v>44135</v>
@@ -5435,7 +5496,7 @@
         <v>11829.925859357441</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="113">
         <f>'IOX Fact Sheet Backup'!A75</f>
         <v>44165</v>
@@ -5449,7 +5510,7 @@
         <v>11838.197749228972</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="113">
         <f>'IOX Fact Sheet Backup'!A76</f>
         <v>44196</v>
@@ -5461,6 +5522,48 @@
       <c r="C76" s="114">
         <f>'IOX Fact Sheet Backup'!D76</f>
         <v>11863.677212475228</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="113">
+        <f>'IOX Fact Sheet Backup'!A77</f>
+        <v>44227</v>
+      </c>
+      <c r="B77" s="114">
+        <f>'IOX Fact Sheet Backup'!B77</f>
+        <v>11928</v>
+      </c>
+      <c r="C77" s="114">
+        <f>'IOX Fact Sheet Backup'!D77</f>
+        <v>11872.817140172783</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="113">
+        <f>'IOX Fact Sheet Backup'!A78</f>
+        <v>44255</v>
+      </c>
+      <c r="B78" s="114">
+        <f>'IOX Fact Sheet Backup'!B78</f>
+        <v>11959</v>
+      </c>
+      <c r="C78" s="114">
+        <f>'IOX Fact Sheet Backup'!D78</f>
+        <v>11793.519331712991</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="113">
+        <f>'IOX Fact Sheet Backup'!A79</f>
+        <v>44286</v>
+      </c>
+      <c r="B79" s="114">
+        <f>'IOX Fact Sheet Backup'!B79</f>
+        <v>11943</v>
+      </c>
+      <c r="C79" s="114">
+        <f>'IOX Fact Sheet Backup'!D79</f>
+        <v>11733.165172279972</v>
       </c>
     </row>
   </sheetData>
@@ -5472,22 +5575,22 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44BA310A-AC66-4886-A9B6-CBC647222F1F}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="9.109375" style="114"/>
-    <col min="7" max="7" width="15.6640625" style="114" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="9.140625" style="114"/>
+    <col min="7" max="7" width="15.7109375" style="114" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>'IOX Fact Sheet Backup'!G18</f>
         <v>Share Class/Benchmark</v>
@@ -5520,165 +5623,165 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'IOX Fact Sheet Backup'!G19</f>
         <v>Class A</v>
       </c>
       <c r="B2" s="114">
         <f>'IOX Fact Sheet Backup'!H19</f>
-        <v>-1.1900000000000002</v>
+        <v>-0.38</v>
       </c>
       <c r="C2" s="114">
         <f>'IOX Fact Sheet Backup'!I19</f>
-        <v>2.73</v>
+        <v>-0.38</v>
       </c>
       <c r="D2" s="114">
         <f>'IOX Fact Sheet Backup'!J19</f>
-        <v>2.73</v>
+        <v>0.01</v>
       </c>
       <c r="E2" s="114">
         <f>'IOX Fact Sheet Backup'!K19</f>
-        <v>3.63</v>
+        <v>3.39</v>
       </c>
       <c r="F2" s="114">
         <f>'IOX Fact Sheet Backup'!L19</f>
-        <v>3.1300000000000003</v>
+        <v>2.85</v>
       </c>
       <c r="G2" s="114">
         <f>'IOX Fact Sheet Backup'!M19</f>
-        <v>2.77</v>
+        <v>2.6</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>'IOX Fact Sheet Backup'!G20</f>
         <v>Class C</v>
       </c>
       <c r="B3" s="114">
         <f>'IOX Fact Sheet Backup'!H20</f>
-        <v>-1.31</v>
+        <v>-0.57000000000000006</v>
       </c>
       <c r="C3" s="114">
         <f>'IOX Fact Sheet Backup'!I20</f>
-        <v>2.09</v>
+        <v>-0.57000000000000006</v>
       </c>
       <c r="D3" s="114">
         <f>'IOX Fact Sheet Backup'!J20</f>
-        <v>2.09</v>
+        <v>-0.66</v>
       </c>
       <c r="E3" s="114">
         <f>'IOX Fact Sheet Backup'!K20</f>
-        <v>2.9000000000000004</v>
+        <v>2.6599999999999997</v>
       </c>
       <c r="F3" s="114">
         <f>'IOX Fact Sheet Backup'!L20</f>
-        <v>2.36</v>
+        <v>2.09</v>
       </c>
       <c r="G3" s="114">
         <f>'IOX Fact Sheet Backup'!M20</f>
-        <v>1.9900000000000002</v>
+        <v>1.82</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>'IOX Fact Sheet Backup'!G21</f>
         <v>Class I</v>
       </c>
       <c r="B4" s="114">
         <f>'IOX Fact Sheet Backup'!H21</f>
-        <v>-1.0324605600066077</v>
+        <v>-0.32548823234852281</v>
       </c>
       <c r="C4" s="114">
         <f>'IOX Fact Sheet Backup'!I21</f>
-        <v>3.088703432848662</v>
+        <v>-0.32548823234852281</v>
       </c>
       <c r="D4" s="114">
         <f>'IOX Fact Sheet Backup'!J21</f>
-        <v>3.088703432848662</v>
+        <v>0.35291152004033272</v>
       </c>
       <c r="E4" s="114">
         <f>'IOX Fact Sheet Backup'!K21</f>
-        <v>3.9</v>
+        <v>3.66</v>
       </c>
       <c r="F4" s="114">
         <f>'IOX Fact Sheet Backup'!L21</f>
-        <v>3.36</v>
+        <v>3.08</v>
       </c>
       <c r="G4" s="114">
         <f>'IOX Fact Sheet Backup'!M21</f>
-        <v>3</v>
+        <v>2.83</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="115" t="s">
         <v>36</v>
       </c>
       <c r="B5" s="114">
         <f>'IOX Fact Sheet Backup'!H22</f>
-        <v>0.24506525725379846</v>
+        <v>-1.1000977003826073</v>
       </c>
       <c r="C5" s="114">
         <f>'IOX Fact Sheet Backup'!I22</f>
-        <v>3.8720147352044041</v>
+        <v>-1.1000977003826073</v>
       </c>
       <c r="D5" s="114">
         <f>'IOX Fact Sheet Backup'!J22</f>
-        <v>3.8720147352044041</v>
+        <v>-8.7395864132060713E-2</v>
       </c>
       <c r="E5" s="114">
         <f>'IOX Fact Sheet Backup'!K22</f>
-        <v>3.7113039653951629</v>
+        <v>3.75</v>
       </c>
       <c r="F5" s="114">
         <f>'IOX Fact Sheet Backup'!L22</f>
-        <v>3.0513852056778035</v>
+        <v>2.4299999999999997</v>
       </c>
       <c r="G5" s="114">
         <f>'IOX Fact Sheet Backup'!M22</f>
-        <v>2.8400000000000003</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="H5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>'IOX Fact Sheet Backup'!G23</f>
         <v>Class A w/ Sales Charge</v>
       </c>
       <c r="B6" s="114">
         <f>'IOX Fact Sheet Backup'!H23</f>
-        <v>-5.8500000000000005</v>
+        <v>-5.09</v>
       </c>
       <c r="C6" s="114">
         <f>'IOX Fact Sheet Backup'!I23</f>
-        <v>-2.1399999999999997</v>
+        <v>-5.09</v>
       </c>
       <c r="D6" s="114">
         <f>'IOX Fact Sheet Backup'!J23</f>
-        <v>-2.1399999999999997</v>
+        <v>-4.7600000000000007</v>
       </c>
       <c r="E6" s="114">
         <f>'IOX Fact Sheet Backup'!K23</f>
-        <v>1.97</v>
+        <v>1.73</v>
       </c>
       <c r="F6" s="114">
         <f>'IOX Fact Sheet Backup'!L23</f>
-        <v>2.12</v>
+        <v>1.8499999999999999</v>
       </c>
       <c r="G6" s="114">
         <f>'IOX Fact Sheet Backup'!M23</f>
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -5692,21 +5795,21 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E4B3F4-5D9E-4B13-8501-E6134E0E32A6}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.109375" style="114"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="114"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -5720,55 +5823,55 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'IOX Fact Sheet Backup'!P29</f>
         <v>Class A</v>
       </c>
       <c r="B2" s="116">
         <f>'IOX Fact Sheet Backup'!Q29</f>
-        <v>2.29E-2</v>
+        <v>2.76E-2</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="116">
         <f>'IOX Fact Sheet Backup'!R29</f>
-        <v>1.7500000000000002E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.18E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>'IOX Fact Sheet Backup'!P30</f>
         <v>Class C</v>
       </c>
       <c r="B3" s="116">
         <f>'IOX Fact Sheet Backup'!Q30</f>
-        <v>1.7399999999999999E-2</v>
+        <v>1.9199999999999998E-2</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" s="116">
         <f>'IOX Fact Sheet Backup'!R30</f>
-        <v>1.17E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.32E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>'IOX Fact Sheet Backup'!P31</f>
         <v>Class I</v>
       </c>
       <c r="B4" s="116">
         <f>'IOX Fact Sheet Backup'!Q31</f>
-        <v>2.5700000000000001E-2</v>
+        <v>3.1099999999999999E-2</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" s="116">
         <f>'IOX Fact Sheet Backup'!R31</f>
-        <v>2.01E-2</v>
+        <v>2.5100000000000001E-2</v>
       </c>
     </row>
   </sheetData>
@@ -5780,20 +5883,20 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146209D0-B99A-45B5-9926-9E9E84667405}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -5804,37 +5907,37 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
       <c r="B2" s="114">
         <f>'IOX Fact Sheet Backup'!H7</f>
-        <v>2.0322619758917351</v>
+        <v>2.0013472780917856</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>49</v>
       </c>
       <c r="B3" s="114">
         <f>'IOX Fact Sheet Backup'!H8</f>
-        <v>0.3243746430726131</v>
+        <v>0.32110719939170518</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>50</v>
       </c>
       <c r="B4" s="114">
         <f>'IOX Fact Sheet Backup'!H9</f>
-        <v>7.6905355521827978E-2</v>
+        <v>7.8105584854844201E-2</v>
       </c>
       <c r="C4">
         <v>3</v>
